--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCF/20/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BCF/20/seed5/result_data_RandomForest.xlsx
@@ -485,7 +485,7 @@
         <v>4.54</v>
       </c>
       <c r="C3" t="n">
-        <v>-12.65550000000001</v>
+        <v>-12.63219999999999</v>
       </c>
       <c r="D3" t="n">
         <v>-6.85</v>
@@ -502,7 +502,7 @@
         <v>4.04</v>
       </c>
       <c r="C4" t="n">
-        <v>-14.1263</v>
+        <v>-14.02719999999999</v>
       </c>
       <c r="D4" t="n">
         <v>-7.43</v>
@@ -542,7 +542,7 @@
         <v>-8.59</v>
       </c>
       <c r="E6" t="n">
-        <v>12.14989999999999</v>
+        <v>12.02589999999999</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>6.56</v>
       </c>
       <c r="C7" t="n">
-        <v>-11.8464</v>
+        <v>-11.8979</v>
       </c>
       <c r="D7" t="n">
         <v>-9.31</v>
       </c>
       <c r="E7" t="n">
-        <v>12.66789999999999</v>
+        <v>12.49739999999999</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>7.52</v>
       </c>
       <c r="C8" t="n">
-        <v>-12.29129999999999</v>
+        <v>-12.291</v>
       </c>
       <c r="D8" t="n">
         <v>-7.09</v>
       </c>
       <c r="E8" t="n">
-        <v>13.21060000000002</v>
+        <v>13.28610000000001</v>
       </c>
     </row>
     <row r="9">
@@ -618,7 +618,7 @@
         <v>-22.23</v>
       </c>
       <c r="B11" t="n">
-        <v>5.120599999999997</v>
+        <v>5.058</v>
       </c>
       <c r="C11" t="n">
         <v>-13.87</v>
@@ -635,10 +635,10 @@
         <v>-24</v>
       </c>
       <c r="B12" t="n">
-        <v>5.852599999999998</v>
+        <v>5.5987</v>
       </c>
       <c r="C12" t="n">
-        <v>-14.73850000000002</v>
+        <v>-14.67700000000002</v>
       </c>
       <c r="D12" t="n">
         <v>-10.06</v>
@@ -672,7 +672,7 @@
         <v>8.33</v>
       </c>
       <c r="C14" t="n">
-        <v>-11.4204</v>
+        <v>-11.643</v>
       </c>
       <c r="D14" t="n">
         <v>-7.97</v>
@@ -686,7 +686,7 @@
         <v>-21.67</v>
       </c>
       <c r="B15" t="n">
-        <v>5.336800000000002</v>
+        <v>5.275000000000002</v>
       </c>
       <c r="C15" t="n">
         <v>-10.67</v>
@@ -763,7 +763,7 @@
         <v>-8.470000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>12.9166</v>
+        <v>12.70439999999999</v>
       </c>
     </row>
     <row r="20">
@@ -797,7 +797,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>12.66379999999999</v>
+        <v>12.46009999999998</v>
       </c>
     </row>
     <row r="22">
@@ -808,7 +808,7 @@
         <v>4.26</v>
       </c>
       <c r="C22" t="n">
-        <v>-11.39579999999999</v>
+        <v>-11.38259999999999</v>
       </c>
       <c r="D22" t="n">
         <v>-5.14</v>
@@ -848,7 +848,7 @@
         <v>-9.24</v>
       </c>
       <c r="E24" t="n">
-        <v>12.65459999999999</v>
+        <v>12.43689999999999</v>
       </c>
     </row>
     <row r="25">
@@ -865,7 +865,7 @@
         <v>-7.71</v>
       </c>
       <c r="E25" t="n">
-        <v>13.63840000000001</v>
+        <v>13.55840000000001</v>
       </c>
     </row>
   </sheetData>
